--- a/Munkafüzet.xlsx
+++ b/Munkafüzet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\kurvafontos genya 12.be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B177367E-AAE1-4F67-9297-1CED78A4AEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3593929-7506-44FC-B886-CCC1F543C23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{696C7776-FDDD-4ED3-9CA9-E4F652B6443F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{696C7776-FDDD-4ED3-9CA9-E4F652B6443F}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>180db</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>https://www.pcx.hu/ubiquiti-unifi-u6-2x2-wi-fi-6-belteri-access-point-279985</t>
+  </si>
+  <si>
+    <t>Accespoint</t>
+  </si>
+  <si>
+    <t>46.899 Ft</t>
+  </si>
+  <si>
+    <t>1.172.475Ft.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4206BC36-9830-4113-A1CD-5DD41483DFD9}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED89069-EB6D-4C3E-B4BE-A91A8BED1A2E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,13 +783,35 @@
         <v>44</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -788,8 +822,9 @@
     <hyperlink ref="B7" r:id="rId4" xr:uid="{A1AFD76F-8C92-439A-93B9-8D1BD7B89C32}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{7017C24B-950D-48C5-BAC5-CDF3A446533F}"/>
     <hyperlink ref="B9" r:id="rId6" xr:uid="{A4909E3C-C841-4AF0-9B63-69A7CD52AE8B}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{B9874AF8-1E38-4F68-91E0-98BB20F93310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Munkafüzet.xlsx
+++ b/Munkafüzet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\kurvafontos genya 12.be\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3593929-7506-44FC-B886-CCC1F543C23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67576BD0-09E7-43F5-99BA-2EB503A3E87F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{696C7776-FDDD-4ED3-9CA9-E4F652B6443F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>180db</t>
   </si>
@@ -79,15 +79,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Darab szám</t>
-  </si>
-  <si>
-    <t>Egység ár</t>
-  </si>
-  <si>
-    <t>Össz. ár</t>
-  </si>
-  <si>
     <t>https://printershop.hu/index.php?route=product/product&amp;product_id=33949&amp;from=argep</t>
   </si>
   <si>
@@ -176,6 +167,18 @@
   </si>
   <si>
     <t>1.172.475Ft.</t>
+  </si>
+  <si>
+    <t>Egység ár:</t>
+  </si>
+  <si>
+    <t>Össz. Ár:</t>
+  </si>
+  <si>
+    <t>Darab szám:</t>
+  </si>
+  <si>
+    <t>Végösszeg:</t>
   </si>
 </sst>
 </file>
@@ -639,10 +642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED89069-EB6D-4C3E-B4BE-A91A8BED1A2E}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,120 +670,120 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2">
@@ -791,7 +794,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -799,19 +802,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
